--- a/src/assets/xlsx/업로드양식_기준정보_사용자등록.xlsx
+++ b/src/assets/xlsx/업로드양식_기준정보_사용자등록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\q-mes\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EC91BF-9390-478D-847F-AB1035384E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AED56F2-2034-4E4E-BC6F-AC02035F7FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
+    <workbookView xWindow="6555" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{DE5BB8FB-FDBA-414B-9F87-7E3DF170496C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt; 예시데이터는 삭제 후 업로드 해주세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>hong123@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhh123**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +152,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,23 +469,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5E49B3-BEA6-4E89-9B1B-535FDF43921D}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="45.875" customWidth="1"/>
+    <col min="2" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -485,16 +493,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -502,15 +513,18 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
